--- a/Montreal Expos.xlsx
+++ b/Montreal Expos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>MON</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,465 +429,528 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1502494</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>84</v>
+      </c>
+      <c r="F2">
         <v>6310</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>38640</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>9470166</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1128981</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>78</v>
+      </c>
+      <c r="F3">
         <v>30928</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>62656</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>11103600</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>1850324</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
         <v>39636</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>47616</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>6942052</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>1478659</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5">
         <v>57050</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>50250</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>9603333</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>1783533</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
         <v>83202</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>57008</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>13807389</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>1373087</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>85</v>
+      </c>
+      <c r="F7">
         <v>117087</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>63922</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>16586388</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>934742</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>71</v>
+      </c>
+      <c r="F8">
         <v>77163</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>35496</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>10732333</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>1669127</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>87</v>
+      </c>
+      <c r="F9">
         <v>142290</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>57078</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>15822334</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>1641437</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>94</v>
+      </c>
+      <c r="F10">
         <v>239889</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>83538</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>18899333</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1276250</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>74</v>
+      </c>
+      <c r="F11">
         <v>197442</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>60760</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>19098000</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1309618</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="F12">
         <v>263769</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>72534</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>12364000</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>1616709</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="F13">
         <v>277109</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>69006</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>16264500</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>1497609</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
         <v>305877</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>69874</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>19295500</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>914909</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
         <v>357885</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>75339</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>10641500</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>773277</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>68</v>
+      </c>
+      <c r="F16">
         <v>414750</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>80955</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>17903000</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>926272</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>67</v>
+      </c>
+      <c r="F17">
         <v>370011</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>67947</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>32994333</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>642745</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>68</v>
+      </c>
+      <c r="F18">
         <v>421631</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>73563</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>35159500</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>812045</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>83</v>
+      </c>
+      <c r="F19">
         <v>404894</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>67284</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>38670500</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>1025639</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>83</v>
+      </c>
+      <c r="F20">
         <v>397397</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>63258</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>51948500</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>749550</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>67</v>
+      </c>
+      <c r="F21">
         <v>467422</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>71427</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>40897500</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
